--- a/data/Data_Quality_Management_Sytem.xlsx
+++ b/data/Data_Quality_Management_Sytem.xlsx
@@ -12050,7 +12050,7 @@
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>28be9939-c933-2920-fb07-b27de3628651</v>
+        <v>25d8183f-6b72-4a07-b77b-102decd30186</v>
       </c>
     </row>
   </sheetData>
@@ -16558,11 +16558,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R353"/>
+  <dimension ref="A1:R354"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18:C19"/>
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A358" sqref="A358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28666,7 +28666,13 @@
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>8e4ec1ab-ec6f-444f-ae10-d198b90e1792</v>
+        <v>0e868af7-53b6-779b-4c66-1518f127436b</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" t="str">
+        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
+        <v>dfcb0ec4-73d8-352a-663d-7e9ec5cf63f3</v>
       </c>
     </row>
   </sheetData>
@@ -46206,7 +46212,7 @@
     <row r="587" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A587" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>11751801-9a5d-26f0-4125-52588d92a196</v>
+        <v>f86e2695-204b-d1b8-f6e9-6f136b5ed809</v>
       </c>
     </row>
   </sheetData>
@@ -46341,6 +46347,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a7554415-7fe2-495f-8e29-fc6743db560d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bf1f67e8-3c24-4101-a8d3-232677e2ff08" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D27A2460A40CA4D926A8074C9F80B77" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c7c991f548b24f94166f1ba790b85ba7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a7554415-7fe2-495f-8e29-fc6743db560d" xmlns:ns3="bf1f67e8-3c24-4101-a8d3-232677e2ff08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e57eaad8a43202fb1f275966328cdf6b" ns2:_="" ns3:_="">
     <xsd:import namespace="a7554415-7fe2-495f-8e29-fc6743db560d"/>
@@ -46557,27 +46583,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a7554415-7fe2-495f-8e29-fc6743db560d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bf1f67e8-3c24-4101-a8d3-232677e2ff08" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C57C557-7496-425E-990C-35E245A2FB59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1E4C32E-52C4-415C-850E-037FE679F7DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a7554415-7fe2-495f-8e29-fc6743db560d"/>
+    <ds:schemaRef ds:uri="bf1f67e8-3c24-4101-a8d3-232677e2ff08"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CB4B369-96BC-4C96-A8B4-EDD12938F0B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46594,23 +46619,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1E4C32E-52C4-415C-850E-037FE679F7DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a7554415-7fe2-495f-8e29-fc6743db560d"/>
-    <ds:schemaRef ds:uri="bf1f67e8-3c24-4101-a8d3-232677e2ff08"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C57C557-7496-425E-990C-35E245A2FB59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Data_Quality_Management_Sytem.xlsx
+++ b/data/Data_Quality_Management_Sytem.xlsx
@@ -12050,7 +12050,7 @@
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>25d8183f-6b72-4a07-b77b-102decd30186</v>
+        <v>2d78ac86-9d46-4603-8744-1ff3f700e344</v>
       </c>
     </row>
   </sheetData>
@@ -16562,7 +16562,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A358" sqref="A358"/>
+      <selection pane="bottomLeft" activeCell="A353" sqref="A353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28666,13 +28666,13 @@
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>0e868af7-53b6-779b-4c66-1518f127436b</v>
+        <v>0cb6aaab-aab9-bfbd-6830-24ff19229996</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>dfcb0ec4-73d8-352a-663d-7e9ec5cf63f3</v>
+        <v>175d3931-4f00-8444-208e-b3d002857ebc</v>
       </c>
     </row>
   </sheetData>
@@ -46212,7 +46212,7 @@
     <row r="587" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A587" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>f86e2695-204b-d1b8-f6e9-6f136b5ed809</v>
+        <v>45beae15-3a8b-351a-fe74-102ce1d0b5fd</v>
       </c>
     </row>
   </sheetData>
@@ -46347,26 +46347,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a7554415-7fe2-495f-8e29-fc6743db560d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bf1f67e8-3c24-4101-a8d3-232677e2ff08" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D27A2460A40CA4D926A8074C9F80B77" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c7c991f548b24f94166f1ba790b85ba7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a7554415-7fe2-495f-8e29-fc6743db560d" xmlns:ns3="bf1f67e8-3c24-4101-a8d3-232677e2ff08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e57eaad8a43202fb1f275966328cdf6b" ns2:_="" ns3:_="">
     <xsd:import namespace="a7554415-7fe2-495f-8e29-fc6743db560d"/>
@@ -46583,10 +46563,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a7554415-7fe2-495f-8e29-fc6743db560d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bf1f67e8-3c24-4101-a8d3-232677e2ff08" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C57C557-7496-425E-990C-35E245A2FB59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CB4B369-96BC-4C96-A8B4-EDD12938F0B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a7554415-7fe2-495f-8e29-fc6743db560d"/>
+    <ds:schemaRef ds:uri="bf1f67e8-3c24-4101-a8d3-232677e2ff08"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -46603,20 +46614,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CB4B369-96BC-4C96-A8B4-EDD12938F0B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C57C557-7496-425E-990C-35E245A2FB59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a7554415-7fe2-495f-8e29-fc6743db560d"/>
-    <ds:schemaRef ds:uri="bf1f67e8-3c24-4101-a8d3-232677e2ff08"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/Data_Quality_Management_Sytem.xlsx
+++ b/data/Data_Quality_Management_Sytem.xlsx
@@ -12050,7 +12050,7 @@
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>2d78ac86-9d46-4603-8744-1ff3f700e344</v>
+        <v>ba4a297a-8c3f-1cdc-0b1c-6e047157269e</v>
       </c>
     </row>
   </sheetData>
@@ -28666,13 +28666,13 @@
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>0cb6aaab-aab9-bfbd-6830-24ff19229996</v>
+        <v>b90d0ebc-b118-7cab-0bd1-b32dc568a670</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>175d3931-4f00-8444-208e-b3d002857ebc</v>
+        <v>2cb0921f-2e1a-9912-42e7-857e4450793b</v>
       </c>
     </row>
   </sheetData>
@@ -46212,7 +46212,7 @@
     <row r="587" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A587" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>45beae15-3a8b-351a-fe74-102ce1d0b5fd</v>
+        <v>3e7f7c51-d4b5-5da8-8785-bca72a374476</v>
       </c>
     </row>
   </sheetData>
@@ -46347,6 +46347,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a7554415-7fe2-495f-8e29-fc6743db560d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bf1f67e8-3c24-4101-a8d3-232677e2ff08" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D27A2460A40CA4D926A8074C9F80B77" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c7c991f548b24f94166f1ba790b85ba7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a7554415-7fe2-495f-8e29-fc6743db560d" xmlns:ns3="bf1f67e8-3c24-4101-a8d3-232677e2ff08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e57eaad8a43202fb1f275966328cdf6b" ns2:_="" ns3:_="">
     <xsd:import namespace="a7554415-7fe2-495f-8e29-fc6743db560d"/>
@@ -46563,27 +46583,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a7554415-7fe2-495f-8e29-fc6743db560d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bf1f67e8-3c24-4101-a8d3-232677e2ff08" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C57C557-7496-425E-990C-35E245A2FB59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1E4C32E-52C4-415C-850E-037FE679F7DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a7554415-7fe2-495f-8e29-fc6743db560d"/>
+    <ds:schemaRef ds:uri="bf1f67e8-3c24-4101-a8d3-232677e2ff08"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CB4B369-96BC-4C96-A8B4-EDD12938F0B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46600,23 +46619,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1E4C32E-52C4-415C-850E-037FE679F7DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a7554415-7fe2-495f-8e29-fc6743db560d"/>
-    <ds:schemaRef ds:uri="bf1f67e8-3c24-4101-a8d3-232677e2ff08"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C57C557-7496-425E-990C-35E245A2FB59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>